--- a/forms/Form-3BU.xlsx
+++ b/forms/Form-3BU.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\Data dissemination\iotc-reference-data\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E853B78-2BEB-4962-8288-0D0BB79008F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4843879B-9BB4-4DDF-8C8F-AD4174CB4F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="GFpj//VivYAPeIU08ZJg1Dux9toxRhSuIx/DIcXzwdN7RVpS32MIopnBIf/zfwa+hDKrfFh8CXTLPmmG/7iI6w==" workbookSaltValue="5rYiPYrZuKGJOy5hPiufCQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -138,7 +138,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +196,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -614,20 +623,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -672,6 +669,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -679,7 +688,15 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1019,24 +1036,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="55"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="35"/>
@@ -1086,15 +1103,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="25"/>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="49"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="28"/>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="49"/>
+      <c r="G8" s="45"/>
       <c r="H8" s="24"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1207,7 +1224,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="25"/>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="5"/>
@@ -1220,7 +1237,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="25"/>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="5"/>
@@ -1271,7 +1288,7 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="25"/>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="41" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="5"/>
@@ -1320,11 +1337,11 @@
     </row>
     <row r="30" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="25"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="48"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
       <c r="H30" s="24"/>
     </row>
     <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1390,40 +1407,40 @@
       <c r="E1" s="14"/>
     </row>
     <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="56" t="s">
+      <c r="C4" s="55"/>
+      <c r="D4" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="57"/>
+      <c r="E4" s="53"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="57" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1728,12 +1745,17 @@
       <c r="E55" s="18"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BIqDT5+eTlhSeNgrKOPj8kZLUH9HfBpcRN4kULaHJc0fl1uN+7o/Pj+D9EbZcM6yRSZS0nGVo2MRnyb1YfqNAA==" saltValue="XKNNO+rM0yUuCVzlHquwVw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qy4+gYN2j4vCeTBltBx09UL0zJ7SaLEE1N/F9yKHj0JeFDRPip/tJS/oZFtckq7EfMC8QN0Su6QeKuJ5D625Mw==" saltValue="Jo5eTO4aRn6A4JrtJ7sUMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="3">
     <mergeCell ref="B2:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="B4:C4"/>
   </mergeCells>
+  <conditionalFormatting sqref="B6:E1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>B6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/forms/Form-3BU.xlsx
+++ b/forms/Form-3BU.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4843879B-9BB4-4DDF-8C8F-AD4174CB4F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D85CB70-66A9-4532-8859-9928A8CFEEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="GFpj//VivYAPeIU08ZJg1Dux9toxRhSuIx/DIcXzwdN7RVpS32MIopnBIf/zfwa+hDKrfFh8CXTLPmmG/7iI6w==" workbookSaltValue="5rYiPYrZuKGJOy5hPiufCQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -626,6 +626,18 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -669,18 +681,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1036,24 +1036,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="55"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="35"/>
@@ -1103,15 +1103,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="25"/>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="45"/>
+      <c r="D8" s="49"/>
       <c r="E8" s="28"/>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="45"/>
+      <c r="G8" s="49"/>
       <c r="H8" s="24"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1337,11 +1337,11 @@
     </row>
     <row r="30" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="25"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="44"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="48"/>
       <c r="H30" s="24"/>
     </row>
     <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1384,7 +1384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C098252-FABC-4161-882E-794F98E79BC6}">
   <dimension ref="B1:E55"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -1407,40 +1407,40 @@
       <c r="E1" s="14"/>
     </row>
     <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
     </row>
     <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="52" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="53"/>
+      <c r="E4" s="57"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="43" t="s">
         <v>26</v>
       </c>
     </row>

--- a/forms/Form-3BU.xlsx
+++ b/forms/Form-3BU.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D85CB70-66A9-4532-8859-9928A8CFEEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DF6046-ECC5-47BD-992B-761141E1FE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="GFpj//VivYAPeIU08ZJg1Dux9toxRhSuIx/DIcXzwdN7RVpS32MIopnBIf/zfwa+hDKrfFh8CXTLPmmG/7iI6w==" workbookSaltValue="5rYiPYrZuKGJOy5hPiufCQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2D41B5-AC8B-4133-9C08-EAF515BF72F5}">
   <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,11 +1384,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C098252-FABC-4161-882E-794F98E79BC6}">
   <dimension ref="B1:E55"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/forms/Form-3BU.xlsx
+++ b/forms/Form-3BU.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DF6046-ECC5-47BD-992B-761141E1FE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D3F648-F5AC-47EE-8446-BBEE61A3CD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="GFpj//VivYAPeIU08ZJg1Dux9toxRhSuIx/DIcXzwdN7RVpS32MIopnBIf/zfwa+hDKrfFh8CXTLPmmG/7iI6w==" workbookSaltValue="5rYiPYrZuKGJOy5hPiufCQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="34305" yWindow="2610" windowWidth="21600" windowHeight="11295" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2D41B5-AC8B-4133-9C08-EAF515BF72F5}">
   <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,11 +1384,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C098252-FABC-4161-882E-794F98E79BC6}">
   <dimension ref="B1:E55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/forms/Form-3BU.xlsx
+++ b/forms/Form-3BU.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D3F648-F5AC-47EE-8446-BBEE61A3CD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FF09D2-2A82-4195-AE6D-3A7BEB0095BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="GFpj//VivYAPeIU08ZJg1Dux9toxRhSuIx/DIcXzwdN7RVpS32MIopnBIf/zfwa+hDKrfFh8CXTLPmmG/7iI6w==" workbookSaltValue="5rYiPYrZuKGJOy5hPiufCQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="34305" yWindow="2610" windowWidth="21600" windowHeight="11295" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
     <t>Latitude</t>
   </si>
   <si>
-    <t>Position at 12:00 GMT</t>
+    <t>Buoy position</t>
   </si>
 </sst>
 </file>
@@ -1745,7 +1745,7 @@
       <c r="E55" s="18"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qy4+gYN2j4vCeTBltBx09UL0zJ7SaLEE1N/F9yKHj0JeFDRPip/tJS/oZFtckq7EfMC8QN0Su6QeKuJ5D625Mw==" saltValue="Jo5eTO4aRn6A4JrtJ7sUMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hcz4YxxDIZvqMIWGaV/th2O6Fw7p0MmRD+xzlEG14EIBifM0Iu0YZ4qWY8+3EXMLPkXyTGo3bytNJi6uRNg1Nw==" saltValue="9qsPcz8q/ECHb3ZVgXeKxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="3">
     <mergeCell ref="B2:E3"/>
     <mergeCell ref="D4:E4"/>

--- a/forms/Form-3BU.xlsx
+++ b/forms/Form-3BU.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FF09D2-2A82-4195-AE6D-3A7BEB0095BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA0483E-E752-4F42-99D1-FBDEC6B8D655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="GFpj//VivYAPeIU08ZJg1Dux9toxRhSuIx/DIcXzwdN7RVpS32MIopnBIf/zfwa+hDKrfFh8CXTLPmmG/7iI6w==" workbookSaltValue="5rYiPYrZuKGJOy5hPiufCQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -1020,7 +1020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2D41B5-AC8B-4133-9C08-EAF515BF72F5}">
   <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/forms/Form-3BU.xlsx
+++ b/forms/Form-3BU.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-workflow\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA0483E-E752-4F42-99D1-FBDEC6B8D655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27A2F1C-9E40-4301-9A33-8E3797C014EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="GFpj//VivYAPeIU08ZJg1Dux9toxRhSuIx/DIcXzwdN7RVpS32MIopnBIf/zfwa+hDKrfFh8CXTLPmmG/7iI6w==" workbookSaltValue="5rYiPYrZuKGJOy5hPiufCQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -48,12 +48,6 @@
     <t>Full name</t>
   </si>
   <si>
-    <t>e-mail</t>
-  </si>
-  <si>
-    <t>Organization</t>
-  </si>
-  <si>
     <t>General information</t>
   </si>
   <si>
@@ -72,9 +66,6 @@
     <t>Submission information</t>
   </si>
   <si>
-    <t>Finalization date</t>
-  </si>
-  <si>
     <t>Submission date</t>
   </si>
   <si>
@@ -127,6 +118,15 @@
   </si>
   <si>
     <t>Buoy position</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Finalisation date</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1037,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="50" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -1058,17 +1058,17 @@
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="35"/>
       <c r="C4" s="36" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E4" s="38"/>
       <c r="F4" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="39" t="s">
         <v>13</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>16</v>
       </c>
       <c r="H4" s="40"/>
     </row>
@@ -1084,7 +1084,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="25"/>
       <c r="C6" s="32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
@@ -1109,7 +1109,7 @@
       <c r="D8" s="49"/>
       <c r="E8" s="28"/>
       <c r="F8" s="49" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G8" s="49"/>
       <c r="H8" s="24"/>
@@ -1130,12 +1130,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="25"/>
       <c r="C10" s="26" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="28"/>
-      <c r="F10" s="28" t="s">
-        <v>3</v>
+      <c r="F10" s="26" t="s">
+        <v>28</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="24"/>
@@ -1152,7 +1152,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="25"/>
       <c r="C12" s="26" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="28"/>
@@ -1163,7 +1163,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="25"/>
       <c r="C13" s="26" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="28"/>
@@ -1192,7 +1192,7 @@
     <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="25"/>
       <c r="C16" s="32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
@@ -1212,12 +1212,12 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="25"/>
       <c r="C18" s="26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="28"/>
       <c r="F18" s="26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="24"/>
@@ -1225,12 +1225,12 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="25"/>
       <c r="C19" s="41" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="24"/>
@@ -1238,12 +1238,12 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="25"/>
       <c r="C20" s="41" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="28"/>
       <c r="F20" s="26" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="24"/>
@@ -1269,7 +1269,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="25"/>
       <c r="C23" s="32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="28"/>
@@ -1289,7 +1289,7 @@
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="25"/>
       <c r="C25" s="41" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="28"/>
@@ -1318,7 +1318,7 @@
     <row r="28" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="25"/>
       <c r="C28" s="32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="28"/>
@@ -1358,7 +1358,7 @@
       <c r="D32" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eO0wv4eON9yfegDw4y00+C6gsepJZ27aAux9mh0FOWS9ms0lpusaNXuh922/dFo/dAzQF+p5b9zs7n7eqbEsDA==" saltValue="bulBnDk+xl4acxsgOAFmTg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YRco1e8hwo8EKQeaacy+Os0UXKHrKCqeivR/6GbJcjUtiBY7HbKLdESvt3ID1dDdDiyIcWNCQ3LpLIuLUTCnaQ==" saltValue="iAyDn2xsHzWdap4zdxsswQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C8:D8"/>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="50" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -1422,26 +1422,26 @@
     </row>
     <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="58" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" s="59"/>
       <c r="D4" s="56" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E4" s="57"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="45" t="s">
-        <v>27</v>
-      </c>
       <c r="D5" s="42" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">

--- a/forms/Form-3BU.xlsx
+++ b/forms/Form-3BU.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-workflow\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27A2F1C-9E40-4301-9A33-8E3797C014EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8234E8EC-AE76-422C-832B-FB93F11E874B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="GFpj//VivYAPeIU08ZJg1Dux9toxRhSuIx/DIcXzwdN7RVpS32MIopnBIf/zfwa+hDKrfFh8CXTLPmmG/7iI6w==" workbookSaltValue="5rYiPYrZuKGJOy5hPiufCQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -530,7 +530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -683,6 +683,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1021,7 +1022,7 @@
   <dimension ref="B1:H32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,7 +1135,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="28"/>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="60" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="3"/>
@@ -1358,7 +1359,7 @@
       <c r="D32" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YRco1e8hwo8EKQeaacy+Os0UXKHrKCqeivR/6GbJcjUtiBY7HbKLdESvt3ID1dDdDiyIcWNCQ3LpLIuLUTCnaQ==" saltValue="iAyDn2xsHzWdap4zdxsswQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mDRNm9WPbkdaqXveGw/QqP15ivgy6jOtAJbmHoPkuVEXfvjYgDjJDMIP4Put1SLsWe5KRHtyzBa1ChNgh3RQtQ==" saltValue="sL8YbatJRkMPzIJo+60fHQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C8:D8"/>

--- a/forms/Form-3BU.xlsx
+++ b/forms/Form-3BU.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-workflow\workflow\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8234E8EC-AE76-422C-832B-FB93F11E874B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F34946-5E1D-4FCB-8416-211CCB7736C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="GFpj//VivYAPeIU08ZJg1Dux9toxRhSuIx/DIcXzwdN7RVpS32MIopnBIf/zfwa+hDKrfFh8CXTLPmmG/7iI6w==" workbookSaltValue="5rYiPYrZuKGJOy5hPiufCQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -530,7 +530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -683,7 +683,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1022,7 +1021,7 @@
   <dimension ref="B1:H32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,7 +1134,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="28"/>
-      <c r="F10" s="60" t="s">
+      <c r="F10" s="28" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="3"/>
